--- a/Follow_Up_Log.xlsx
+++ b/Follow_Up_Log.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Follow_Up_Log" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Follow_Up_Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Subject_ID</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>2017-10-28</t>
+  </si>
+  <si>
+    <t>13:11:51.626071</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G1" activeCellId="0" pane="topLeft" sqref="G1"/>
@@ -421,13 +430,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="10.1224489795918"/>
-    <col customWidth="1" max="2" min="2" width="14.5816326530612"/>
-    <col customWidth="1" max="3" min="3" width="14.8469387755102"/>
-    <col customWidth="1" max="4" min="4" width="13.7704081632653"/>
-    <col customWidth="1" max="5" min="5" width="14.4438775510204"/>
-    <col customWidth="1" max="6" min="6" width="18.3571428571429"/>
-    <col customWidth="1" max="7" min="7" width="6.20918367346939"/>
+    <col customWidth="1" max="1" min="1" style="1" width="10.1224489795918"/>
+    <col customWidth="1" max="2" min="2" style="1" width="14.5816326530612"/>
+    <col customWidth="1" max="3" min="3" style="1" width="14.8469387755102"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13.7704081632653"/>
+    <col customWidth="1" max="5" min="5" style="1" width="14.4438775510204"/>
+    <col customWidth="1" max="6" min="6" style="1" width="18.3571428571429"/>
+    <col customWidth="1" max="7" min="7" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.75" r="1" s="1" spans="1:7">
@@ -474,6 +483,29 @@
       </c>
       <c r="G2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Follow_Up_Log.xlsx
+++ b/Follow_Up_Log.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Subject_ID</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>13:11:51.626071</t>
+  </si>
+  <si>
+    <t>22:02:14.908319</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>22:04:29.674747</t>
+  </si>
+  <si>
+    <t>22:04:34.414847</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -422,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G1" activeCellId="0" pane="topLeft" sqref="G1"/>
@@ -506,6 +521,52 @@
       </c>
       <c r="G3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
